--- a/Admin/Justin/Time_Sheet_Week5.xlsx
+++ b/Admin/Justin/Time_Sheet_Week5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Justin\Desktop\Classes\Captsone\SeniorDesignProject\Admin\Justin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9F6DFB9-9AB4-4F6E-873C-79C80C6E05C2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{752A142E-BF6D-4639-8F6E-C83BF1CB8997}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -601,7 +601,7 @@
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -677,25 +677,25 @@
         <v>3</v>
       </c>
       <c r="B5" s="4">
-        <v>44459</v>
+        <v>44466</v>
       </c>
       <c r="C5" s="4">
-        <v>44460</v>
+        <v>44467</v>
       </c>
       <c r="D5" s="4">
-        <v>44461</v>
+        <v>44468</v>
       </c>
       <c r="E5" s="4">
-        <v>44462</v>
+        <v>44469</v>
       </c>
       <c r="F5" s="4">
-        <v>44463</v>
+        <v>44470</v>
       </c>
       <c r="G5" s="4">
-        <v>44464</v>
+        <v>44471</v>
       </c>
       <c r="H5" s="4">
-        <v>44465</v>
+        <v>44472</v>
       </c>
       <c r="I5" s="5" t="s">
         <v>4</v>
@@ -707,7 +707,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="8">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
@@ -717,7 +717,7 @@
       <c r="H6" s="9"/>
       <c r="I6" s="10">
         <f t="shared" ref="I6:I9" si="0">SUM(B6:H6)</f>
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="J6" s="6"/>
     </row>
@@ -743,19 +743,19 @@
         <v>18</v>
       </c>
       <c r="B8" s="8">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8">
-        <v>0.2</v>
-      </c>
+      <c r="D8" s="8">
+        <v>1</v>
+      </c>
+      <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c r="H8" s="9"/>
       <c r="I8" s="10">
         <f t="shared" si="0"/>
-        <v>0.2</v>
+        <v>2.5</v>
       </c>
       <c r="J8" s="6"/>
     </row>
@@ -763,18 +763,18 @@
       <c r="A9" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="8">
-        <v>1</v>
-      </c>
+      <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
+      <c r="E9" s="8">
+        <v>0.1</v>
+      </c>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c r="H9" s="9"/>
       <c r="I9" s="10">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="J9" s="6"/>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B10" s="10">
         <f t="shared" ref="B10:I10" si="1">SUM(B6:B9)</f>
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="C10" s="10">
         <f t="shared" si="1"/>
@@ -792,11 +792,11 @@
       </c>
       <c r="D10" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" s="10">
         <f t="shared" si="1"/>
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="F10" s="10">
         <f t="shared" si="1"/>
@@ -812,7 +812,7 @@
       </c>
       <c r="I10" s="10">
         <f t="shared" si="1"/>
-        <v>2.4500000000000002</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="J10" s="6"/>
     </row>
